--- a/CustomerData/netlist_TestInfiniteBus.xlsx
+++ b/CustomerData/netlist_TestInfiniteBus.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\CustomerData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD32125-3D49-4A15-995B-129C1C86A702}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AC5EA1-6219-405A-AF23-EE5FFA2729D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="14400" windowHeight="7372" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerFlow" sheetId="1" r:id="rId1"/>
     <sheet name="NetworkLine" sheetId="2" r:id="rId2"/>
     <sheet name="Device" sheetId="3" r:id="rId3"/>
     <sheet name="Simulation" sheetId="4" r:id="rId4"/>
+    <sheet name="NetworkLine IEEE" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>bus</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,6 +160,10 @@
   </si>
   <si>
     <t>DirectFeedthrough</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T Ratio (pu)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -640,25 +645,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C2B6E-74BD-40FA-8EB6-D64D8C21837A}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -677,8 +682,11 @@
       <c r="F3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -697,8 +705,11 @@
       <c r="F4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1</v>
       </c>
@@ -717,8 +728,11 @@
       <c r="F5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>2</v>
       </c>
@@ -736,6 +750,9 @@
       </c>
       <c r="F6">
         <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -898,4 +915,25 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE711054-34E0-4209-9170-FF4177BDA97F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CustomerData/netlist_TestInfiniteBus.xlsx
+++ b/CustomerData/netlist_TestInfiniteBus.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\CustomerData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AC5EA1-6219-405A-AF23-EE5FFA2729D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9099FCDF-E51A-4C1F-938F-407E51510022}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="14400" windowHeight="7372" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerFlow" sheetId="1" r:id="rId1"/>
-    <sheet name="NetworkLine" sheetId="2" r:id="rId2"/>
-    <sheet name="Device" sheetId="3" r:id="rId3"/>
-    <sheet name="Simulation" sheetId="4" r:id="rId4"/>
+    <sheet name="Device" sheetId="3" r:id="rId2"/>
+    <sheet name="Simulation" sheetId="4" r:id="rId3"/>
+    <sheet name="NetworkLine" sheetId="2" r:id="rId4"/>
     <sheet name="NetworkLine IEEE" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -524,7 +524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -644,125 +644,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C2B6E-74BD-40FA-8EB6-D64D8C21837A}">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>0.01</v>
-      </c>
-      <c r="D4">
-        <v>0.3</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.5</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.5</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -843,12 +724,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB93A31-1E5A-4104-8C10-8E6599437516}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -892,7 +773,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -908,6 +789,125 @@
       </c>
       <c r="F4" s="2">
         <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C2B6E-74BD-40FA-8EB6-D64D8C21837A}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0.01</v>
+      </c>
+      <c r="D4">
+        <v>0.3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/CustomerData/netlist_TestInfiniteBus.xlsx
+++ b/CustomerData/netlist_TestInfiniteBus.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\CustomerData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9099FCDF-E51A-4C1F-938F-407E51510022}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFA4DF1-D856-4522-9527-309837781E5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerFlow" sheetId="1" r:id="rId1"/>
     <sheet name="Device" sheetId="3" r:id="rId2"/>
     <sheet name="Simulation" sheetId="4" r:id="rId3"/>
     <sheet name="NetworkLine" sheetId="2" r:id="rId4"/>
-    <sheet name="NetworkLine IEEE" sheetId="5" r:id="rId5"/>
+    <sheet name="NetworkLine_IEEE Form" sheetId="5" r:id="rId5"/>
+    <sheet name="Advanced Setting" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,88 +38,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
-  <si>
-    <t>bus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PGi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QGi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QLi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Qmin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Qmax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>from bus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to bus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wL (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wC (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>inf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bus number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Data:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,26 +56,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>This sheet shows the summarizes of devices connected to buses.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Discretization Method</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Simulation Settings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Samping frequency (Hz)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fundamental Frequency (Hz)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Linearization Times</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,7 +76,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T Ratio (pu)</t>
+    <t>This sheet summarizes the devices connected to buses.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This sheet summarizes other settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This sheet summarizes the parameters for network line impedance in IEEE form.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable_SimulinkModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable_PlotPole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable_PlotAdmittance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This sheets summaries advanced settings for the toolbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-Forward Eular, 2-Hybrid Euler-Trapezoidal, 3-Virtual damping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-Enable, 2-Disable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-Initial step, 2-Every step</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-With virtual damping resistor, 2-Without virtual damping resistor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-Yes, 2-No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Frequency (Hz)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Power (VA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Voltage (V)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,117 +491,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
-        <v>20</v>
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>-1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B3">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0.5</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>-1</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0.5</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>-1</v>
-      </c>
-      <c r="J5">
+      <c r="J3">
         <v>1</v>
       </c>
     </row>
@@ -645,77 +577,61 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.86328125" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
     <col min="2" max="2" width="31.59765625" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" customWidth="1"/>
-    <col min="4" max="4" width="12.1328125" customWidth="1"/>
-    <col min="5" max="5" width="11.19921875" customWidth="1"/>
+    <col min="3" max="3" width="13.9296875" customWidth="1"/>
+    <col min="4" max="4" width="15.265625" customWidth="1"/>
+    <col min="5" max="5" width="13.796875" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="20.86328125" customWidth="1"/>
-    <col min="8" max="8" width="19.19921875" customWidth="1"/>
-    <col min="9" max="9" width="19.06640625" customWidth="1"/>
+    <col min="7" max="7" width="22.46484375" customWidth="1"/>
+    <col min="8" max="8" width="22.265625" customWidth="1"/>
+    <col min="9" max="9" width="24.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>90</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>90</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2">
         <v>10</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -726,69 +642,60 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB93A31-1E5A-4104-8C10-8E6599437516}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.59765625" customWidth="1"/>
-    <col min="2" max="2" width="20.73046875" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="5" width="20.73046875" customWidth="1"/>
-    <col min="6" max="6" width="25.796875" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="18.53125" customWidth="1"/>
+    <col min="3" max="3" width="14.9296875" customWidth="1"/>
+    <col min="4" max="4" width="15.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
         <v>40000</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2">
         <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -800,113 +707,88 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C2B6E-74BD-40FA-8EB6-D64D8C21837A}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A2" sqref="A2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="7" max="7" width="14.796875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>20</v>
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>0.01</v>
+      </c>
+      <c r="D2">
+        <v>0.3</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.5</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.5</v>
-      </c>
-      <c r="G6">
         <v>1</v>
       </c>
     </row>
@@ -918,22 +800,135 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE711054-34E0-4209-9170-FF4177BDA97F}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D00B5E-E2E7-41B8-8388-8931D474EA96}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" s="5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="20.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CustomerData/netlist_TestInfiniteBus.xlsx
+++ b/CustomerData/netlist_TestInfiniteBus.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\CustomerData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFA4DF1-D856-4522-9527-309837781E5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6591C6D5-6220-4327-AE33-E772CDB6ADCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerFlow" sheetId="1" r:id="rId1"/>
     <sheet name="Device" sheetId="3" r:id="rId2"/>
-    <sheet name="Simulation" sheetId="4" r:id="rId3"/>
+    <sheet name="Basic" sheetId="4" r:id="rId3"/>
     <sheet name="NetworkLine" sheetId="2" r:id="rId4"/>
     <sheet name="NetworkLine_IEEE Form" sheetId="5" r:id="rId5"/>
     <sheet name="Advanced Setting" sheetId="6" r:id="rId6"/>
@@ -644,7 +644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB93A31-1E5A-4104-8C10-8E6599437516}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -803,7 +803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D00B5E-E2E7-41B8-8388-8931D474EA96}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
